--- a/data/trans_camb/P25_9-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_9-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,67</t>
+          <t>-4,67; 3,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 0,45</t>
+          <t>-6,24; 1,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 3,21</t>
+          <t>-1,98; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 0,72</t>
+          <t>-10,38; 6,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,92</t>
+          <t>-12,16; 3,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -0,46</t>
+          <t>-5,54; 12,66</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 3,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 1,1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 9,5</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,69%</t>
+          <t>-12,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-47,64%</t>
+          <t>-48,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,95%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-6,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>-17,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,79%</t>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-24,29%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 55,28</t>
+          <t>-73,69; 190,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-76,41; 28,41</t>
+          <t>-100,0; 99,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 18,22</t>
+          <t>-36,39; 414,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 4,97</t>
+          <t>-38,27; 34,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 17,55</t>
+          <t>-44,92; 19,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -3,99</t>
+          <t>-21,92; 68,04</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-37,59; 31,38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-48,58; 11,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,41; 80,04</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,96</t>
+          <t>-8,31; 1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 2,48</t>
+          <t>-7,72; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 5,47</t>
+          <t>-2,47; 11,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 10,7</t>
+          <t>-9,82; 4,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,24</t>
+          <t>-9,9; 5,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,83</t>
+          <t>-3,98; 13,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 1,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 2,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 9,79</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>-41,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,6%</t>
+          <t>-32,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>65,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,03%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-24,79%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-21,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,16%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 224,62</t>
+          <t>-83,77; 82,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 92,29</t>
+          <t>-80,46; 74,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 34,08</t>
+          <t>-34,79; 338,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 66,93</t>
+          <t>-48,97; 39,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 41,94</t>
+          <t>-49,42; 46,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 49,87</t>
+          <t>-23,37; 103,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-54,16; 16,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-50,62; 26,1</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 108,06</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>11,76</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 10,35</t>
+          <t>-13,89; 5,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 7,55</t>
+          <t>-13,84; 8,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 15,92</t>
+          <t>-7,47; 19,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 10,67</t>
+          <t>-13,39; 15,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 10,47</t>
+          <t>-13,07; 13,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 6,92</t>
+          <t>-5,09; 30,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 8,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 8,43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 20,49</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>-28,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>-6,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>139,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>111,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>116,27%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,62; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 539,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,11; 396,04</t>
+          <t>-86,56; 479,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 302,22</t>
+          <t>-82,98; 551,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 217,09</t>
+          <t>-46,25; 788,49</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-77,46; 326,49</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-79,95; 344,21</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-36,87; 703,36</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>-1,71</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,13</t>
+          <t>-4,52; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,37</t>
+          <t>-4,92; 1,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 2,43</t>
+          <t>0,23; 8,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,19</t>
+          <t>-6,63; 3,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,91</t>
+          <t>-7,93; 2,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,47</t>
+          <t>-1,73; 11,18</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 1,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 0,6</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 7,87</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-28,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>-36,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 85,09</t>
+          <t>-67,27; 45,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 12,59</t>
+          <t>-71,48; 37,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 15,03</t>
+          <t>-1,21; 235,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 13,34</t>
+          <t>-31,41; 24,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 17,35</t>
+          <t>-36,97; 15,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 5,01</t>
+          <t>-8,22; 71,51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; 13,91</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-41,37; 6,74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 74,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
